--- a/MS Projects/Waterhemp Resistance/Data Analysis - POST/RAW SURV_POPxHERBxRATE.xlsx
+++ b/MS Projects/Waterhemp Resistance/Data Analysis - POST/RAW SURV_POPxHERBxRATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/MS Projects/Waterhemp Resistance/Data Analysis - POST/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="11_B892CDEFBAB13F7EF7D2076C1AF4A983EAD984FF" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{26BBE6CE-695B-418D-9A14-CC9C648E5778}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="11_B892CDEFBAB13F7EF7D2076C1AF4A983EAD984FF" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{17B134DA-D9A4-4A98-B7F8-8C3FD680BDEA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,12 +697,12 @@
   <dimension ref="A1:J781"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0.27603301350145298</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0.178178544049096</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -870,7 +870,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -938,7 +938,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -972,7 +972,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>0.20342637376387299</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>0.20342637376387299</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>0.24557173288483</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0.19021904635244899</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0.15230631996345401</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>27</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>8.1665166022502206E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>27</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>27</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>27</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>27</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>27</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>27</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0.37039837726687302</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>27</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0.37039837726687302</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>27</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>0.261135169402193</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0.23838270473252399</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>29</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>29</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>29</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>29</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>30</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>0.23066382646752101</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>30</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>30</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>30</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>0.188336225654438</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>30</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -4542,7 +4542,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>30</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0.32077440423364501</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>31</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>31</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>31</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>0.13515845105611299</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>32</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>32</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>0.16597196429581601</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>32</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>32</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>32</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>32</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>32</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>32</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>32</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>32</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>32</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>32</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>33</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>0.22028093509575999</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>33</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>0.16055594198686499</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>33</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>33</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>33</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>0.20605394699163099</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>33</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>33</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>33</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>33</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>33</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>0.24693225151124901</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>33</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>0.23164298481940901</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>33</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>34</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>34</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>34</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>34</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>35</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>0.32077440423364501</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>35</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>35</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>35</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>36</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>36</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>36</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>36</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>36</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0.11295338996880699</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>37</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>37</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>0.32666066409000899</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>37</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>0.16597196429581601</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>37</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>8.1665166022502206E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>37</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>0.19021904635244899</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>37</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>37</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>37</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>37</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>37</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>37</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0.209528963444719</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>37</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>0.24693225151124901</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>37</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>38</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>38</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>38</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>38</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>38</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>39</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>39</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>40</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>40</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>40</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>40</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>40</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>41</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>41</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>41</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>41</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>41</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>41</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>42</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>0.22284242740390101</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>42</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>42</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>0.163330332045004</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>42</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>42</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>0.23066382646752101</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>42</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>42</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>42</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>42</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>42</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>42</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>42</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>0.32077440423364501</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>42</v>
       </c>
@@ -8282,7 +8282,7 @@
         <v>0.37039837726687302</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>42</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>42</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>43</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>43</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>43</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>43</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>43</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>43</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>44</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>44</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>44</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>44</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>44</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>44</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>45</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>0.23066382646752101</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>45</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>45</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>0.130664265636004</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>45</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>45</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>0.14177436018710701</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>45</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>45</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>45</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>45</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>45</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>45</v>
       </c>
@@ -9132,7 +9132,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>45</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>45</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>45</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>45</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>45</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>46</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>0.20659834410152</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>46</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>46</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>46</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>46</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>0.172095000858666</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>46</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>46</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>46</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>46</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>46</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>46</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>46</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>46</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>46</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>46</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>46</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>47</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>0.11295338996880699</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>47</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>47</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>47</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>47</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>0.15230631996345401</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>47</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>47</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>47</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>47</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>47</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>47</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>47</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>47</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>47</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>47</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>47</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>48</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>0.16597196429581601</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>48</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>48</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>48</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>48</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>0.15230631996345401</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>48</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>48</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>48</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>48</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>48</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>49</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>49</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>49</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>49</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>49</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>49</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>50</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>50</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>50</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>50</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>50</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>50</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>50</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>50</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>50</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>50</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>50</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>50</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>50</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>50</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>50</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>50</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>51</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>51</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>51</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>51</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>51</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>51</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>52</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>0.13515845105611299</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>52</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>52</v>
       </c>
@@ -11784,7 +11784,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>52</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>52</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>0.11295338996880699</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>52</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>52</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>52</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>52</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>52</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>52</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>52</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>52</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>52</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>52</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>52</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>53</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>53</v>
       </c>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>53</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>53</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>53</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>53</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>54</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>54</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>54</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>54</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>54</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>0.358636686654213</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>54</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>0.37039837726687302</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>55</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>0.21473633614711499</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>55</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>55</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>55</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>55</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>0.188336225654438</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>55</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>0.103155999186319</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>55</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>55</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>55</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>55</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>55</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>55</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>55</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>55</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>55</v>
       </c>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>55</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>56</v>
       </c>
@@ -13212,7 +13212,7 @@
         <v>0.14177436018710701</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>56</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>56</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>56</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>56</v>
       </c>
@@ -13348,7 +13348,7 @@
         <v>0.188336225654438</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>56</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>0.103155999186319</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>56</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>56</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>56</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>56</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>56</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>56</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>56</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>56</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>56</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>56</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>57</v>
       </c>
@@ -13756,7 +13756,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>57</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>57</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>57</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>58</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>0.15230631996345401</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>58</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>58</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>0.15076646034923499</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>58</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>0.15076646034923499</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>58</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>0.11295338996880699</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>58</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>58</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>58</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>58</v>
       </c>
@@ -14164,7 +14164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>58</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>58</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>58</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>58</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>58</v>
       </c>
@@ -14334,7 +14334,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>58</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>58</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>59</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>59</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>59</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>59</v>
       </c>
@@ -14538,7 +14538,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>59</v>
       </c>
@@ -14572,7 +14572,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>59</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>60</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>60</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>60</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>60</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>60</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>60</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>61</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>61</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>62</v>
       </c>
@@ -14912,7 +14912,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>62</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>62</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>62</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>62</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>62</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>63</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>63</v>
       </c>
@@ -15150,7 +15150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>63</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>63</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>63</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>63</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>64</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>64</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>64</v>
       </c>
@@ -15388,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>64</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>64</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>64</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>65</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>65</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>65</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>65</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>65</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>0.261135169402193</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>65</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>0.275260637494947</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>66</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>66</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>66</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>66</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>66</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>66</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>67</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>0.139997427467147</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>67</v>
       </c>
@@ -15966,7 +15966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>67</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>67</v>
       </c>
@@ -16034,7 +16034,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>67</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>67</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>68</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>68</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>68</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>68</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>68</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>0.178178544049096</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>68</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>0.178178544049096</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>69</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>0.17806537887791599</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>69</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>69</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>69</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>69</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>0.130664265636004</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>69</v>
       </c>
@@ -16510,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>69</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>69</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>69</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>69</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>70</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>70</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>70</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>70</v>
       </c>
@@ -16782,7 +16782,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>70</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>70</v>
       </c>
@@ -16850,7 +16850,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>71</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>71</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>71</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>71</v>
       </c>
@@ -16986,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>72</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>72</v>
       </c>
@@ -17054,7 +17054,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>73</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>73</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>73</v>
       </c>
@@ -17156,7 +17156,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>73</v>
       </c>
@@ -17190,7 +17190,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>73</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>73</v>
       </c>
@@ -17258,7 +17258,7 @@
         <v>0.130664265636004</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>74</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>74</v>
       </c>
@@ -17326,7 +17326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>74</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>74</v>
       </c>
@@ -17394,7 +17394,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>74</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>74</v>
       </c>
@@ -17462,7 +17462,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>75</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>75</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>0.163330332045004</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>75</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>75</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>75</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>75</v>
       </c>
@@ -17666,7 +17666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>76</v>
       </c>
@@ -17700,7 +17700,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>76</v>
       </c>
@@ -17734,7 +17734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>76</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>76</v>
       </c>
@@ -17802,7 +17802,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>76</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>76</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>77</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>77</v>
       </c>
@@ -17938,7 +17938,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>77</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>77</v>
       </c>
@@ -18006,7 +18006,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>77</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>77</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>78</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>78</v>
       </c>
@@ -18142,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>78</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>0.27999485493429299</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>78</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>0.27999485493429299</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>78</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>9.3331618311431094E-2</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>78</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>78</v>
       </c>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>78</v>
       </c>
@@ -18346,7 +18346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>78</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>78</v>
       </c>
@@ -18414,7 +18414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>78</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>78</v>
       </c>
@@ -18482,7 +18482,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>78</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>0.178178544049096</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>78</v>
       </c>
@@ -18550,7 +18550,7 @@
         <v>0.27603301350145298</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>78</v>
       </c>
@@ -18584,7 +18584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>78</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>79</v>
       </c>
@@ -18652,7 +18652,7 @@
         <v>0.13515845105611299</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>79</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>79</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>0.37039837726687302</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>79</v>
       </c>
@@ -18754,7 +18754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>79</v>
       </c>
@@ -18788,7 +18788,7 @@
         <v>0.16597196429581601</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>79</v>
       </c>
@@ -18822,7 +18822,7 @@
         <v>8.1665166022502206E-2</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>79</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>79</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>79</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>79</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>79</v>
       </c>
@@ -18992,7 +18992,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>79</v>
       </c>
@@ -19026,7 +19026,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>79</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>79</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>79</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>79</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>80</v>
       </c>
@@ -19196,7 +19196,7 @@
         <v>0.11295338996880699</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>80</v>
       </c>
@@ -19230,7 +19230,7 @@
         <v>8.1665166022502206E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>80</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>80</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>80</v>
       </c>
@@ -19332,7 +19332,7 @@
         <v>0.172357493323019</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>80</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>0.11295338996880699</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>80</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>80</v>
       </c>
@@ -19434,7 +19434,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>80</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>80</v>
       </c>
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>80</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>80</v>
       </c>
@@ -19570,7 +19570,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>80</v>
       </c>
@@ -19604,7 +19604,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>80</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>80</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>80</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>81</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>81</v>
       </c>
@@ -19774,7 +19774,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>81</v>
       </c>
@@ -19808,7 +19808,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>81</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>81</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>81</v>
       </c>
@@ -19910,7 +19910,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>82</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>82</v>
       </c>
@@ -19978,7 +19978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>82</v>
       </c>
@@ -20012,7 +20012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>82</v>
       </c>
@@ -20046,7 +20046,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>82</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>82</v>
       </c>
@@ -20114,7 +20114,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>83</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>83</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>83</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>83</v>
       </c>
@@ -20250,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>84</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>84</v>
       </c>
@@ -20318,7 +20318,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>84</v>
       </c>
@@ -20352,7 +20352,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>84</v>
       </c>
@@ -20386,7 +20386,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>84</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>84</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>85</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>85</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>0.358636686654213</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>85</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>85</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>86</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>86</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>86</v>
       </c>
@@ -20692,7 +20692,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>86</v>
       </c>
@@ -20726,7 +20726,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>86</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>86</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>87</v>
       </c>
@@ -20828,7 +20828,7 @@
         <v>0.24557173288483</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>87</v>
       </c>
@@ -20862,7 +20862,7 @@
         <v>0.22305160320752701</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>87</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>87</v>
       </c>
@@ -20930,7 +20930,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>87</v>
       </c>
@@ -20964,7 +20964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>87</v>
       </c>
@@ -20998,7 +20998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>88</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>88</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>88</v>
       </c>
@@ -21100,7 +21100,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>88</v>
       </c>
@@ -21134,7 +21134,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>88</v>
       </c>
@@ -21168,7 +21168,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>88</v>
       </c>
@@ -21202,7 +21202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>88</v>
       </c>
@@ -21236,7 +21236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>88</v>
       </c>
@@ -21270,7 +21270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>88</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>88</v>
       </c>
@@ -21338,7 +21338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>88</v>
       </c>
@@ -21372,7 +21372,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>88</v>
       </c>
@@ -21406,7 +21406,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>88</v>
       </c>
@@ -21440,7 +21440,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>88</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>88</v>
       </c>
@@ -21508,7 +21508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>88</v>
       </c>
@@ -21542,7 +21542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>89</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>89</v>
       </c>
@@ -21610,7 +21610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>89</v>
       </c>
@@ -21644,7 +21644,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>89</v>
       </c>
@@ -21678,7 +21678,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>89</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>89</v>
       </c>
@@ -21746,7 +21746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>89</v>
       </c>
@@ -21780,7 +21780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>89</v>
       </c>
@@ -21814,7 +21814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>89</v>
       </c>
@@ -21848,7 +21848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>89</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>89</v>
       </c>
@@ -21916,7 +21916,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>89</v>
       </c>
@@ -21950,7 +21950,7 @@
         <v>0.25661952338691602</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>89</v>
       </c>
@@ -21984,7 +21984,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>89</v>
       </c>
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>89</v>
       </c>
@@ -22052,7 +22052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>89</v>
       </c>
@@ -22086,7 +22086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>90</v>
       </c>
@@ -22120,7 +22120,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>90</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>90</v>
       </c>
@@ -22188,7 +22188,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>90</v>
       </c>
@@ -22222,7 +22222,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>90</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>90</v>
       </c>
@@ -22290,7 +22290,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>91</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>91</v>
       </c>
@@ -22358,7 +22358,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>91</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>91</v>
       </c>
@@ -22426,7 +22426,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>91</v>
       </c>
@@ -22460,7 +22460,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>91</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>92</v>
       </c>
@@ -22528,7 +22528,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>92</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>92</v>
       </c>
@@ -22596,7 +22596,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>92</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>92</v>
       </c>
@@ -22664,7 +22664,7 @@
         <v>0.130664265636004</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>92</v>
       </c>
@@ -22698,7 +22698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>93</v>
       </c>
@@ -22732,7 +22732,7 @@
         <v>0.179235992763256</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>93</v>
       </c>
@@ -22766,7 +22766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>93</v>
       </c>
@@ -22800,7 +22800,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>93</v>
       </c>
@@ -22834,7 +22834,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>93</v>
       </c>
@@ -22868,7 +22868,7 @@
         <v>8.9089272024547903E-2</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>93</v>
       </c>
@@ -22902,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>93</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>93</v>
       </c>
@@ -22970,7 +22970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>93</v>
       </c>
@@ -23004,7 +23004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>93</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>93</v>
       </c>
@@ -23072,7 +23072,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>93</v>
       </c>
@@ -23106,7 +23106,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>93</v>
       </c>
@@ -23140,7 +23140,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>93</v>
       </c>
@@ -23174,7 +23174,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>93</v>
       </c>
@@ -23208,7 +23208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>93</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>94</v>
       </c>
@@ -23276,7 +23276,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>94</v>
       </c>
@@ -23310,7 +23310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>94</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>94</v>
       </c>
@@ -23378,7 +23378,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>94</v>
       </c>
@@ -23412,7 +23412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>94</v>
       </c>
@@ -23446,7 +23446,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>95</v>
       </c>
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>95</v>
       </c>
@@ -23514,7 +23514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>95</v>
       </c>
@@ -23548,7 +23548,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>95</v>
       </c>
@@ -23582,7 +23582,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>95</v>
       </c>
@@ -23616,7 +23616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>95</v>
       </c>
@@ -23650,7 +23650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>96</v>
       </c>
@@ -23684,7 +23684,7 @@
         <v>8.1665166022502206E-2</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>96</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>96</v>
       </c>
@@ -23752,7 +23752,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>96</v>
       </c>
@@ -23786,7 +23786,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>96</v>
       </c>
@@ -23820,7 +23820,7 @@
         <v>0.13515845105611299</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>96</v>
       </c>
@@ -23854,7 +23854,7 @@
         <v>8.1665166022502206E-2</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>96</v>
       </c>
@@ -23888,7 +23888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>96</v>
       </c>
@@ -23922,7 +23922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>96</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>96</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>96</v>
       </c>
@@ -24024,7 +24024,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>96</v>
       </c>
@@ -24058,7 +24058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>96</v>
       </c>
@@ -24092,7 +24092,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>96</v>
       </c>
@@ -24126,7 +24126,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>96</v>
       </c>
@@ -24160,7 +24160,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>96</v>
       </c>
@@ -24194,7 +24194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>97</v>
       </c>
@@ -24228,7 +24228,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>97</v>
       </c>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>97</v>
       </c>
@@ -24296,7 +24296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>97</v>
       </c>
@@ -24330,7 +24330,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>97</v>
       </c>
@@ -24364,7 +24364,7 @@
         <v>0.209528963444719</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>97</v>
       </c>
@@ -24398,7 +24398,7 @@
         <v>0.25661952338691602</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>98</v>
       </c>
@@ -24432,7 +24432,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>98</v>
       </c>
@@ -24466,7 +24466,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>98</v>
       </c>
@@ -24500,7 +24500,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>98</v>
       </c>
@@ -24534,7 +24534,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>98</v>
       </c>
@@ -24568,7 +24568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>98</v>
       </c>
@@ -24602,7 +24602,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>99</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>0.32077440423364501</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>99</v>
       </c>
@@ -24670,7 +24670,7 @@
         <v>0.32077440423364501</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>99</v>
       </c>
@@ -24704,7 +24704,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>99</v>
       </c>
@@ -24738,7 +24738,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>99</v>
       </c>
@@ -24772,7 +24772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>99</v>
       </c>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>100</v>
       </c>
@@ -24840,7 +24840,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>100</v>
       </c>
@@ -24874,7 +24874,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>100</v>
       </c>
@@ -24908,7 +24908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>100</v>
       </c>
@@ -24942,7 +24942,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>101</v>
       </c>
@@ -24976,7 +24976,7 @@
         <v>0.23164298481940901</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>101</v>
       </c>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>101</v>
       </c>
@@ -25044,7 +25044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>101</v>
       </c>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>101</v>
       </c>
@@ -25112,7 +25112,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>101</v>
       </c>
@@ -25146,7 +25146,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>101</v>
       </c>
@@ -25180,7 +25180,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>101</v>
       </c>
@@ -25214,7 +25214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>101</v>
       </c>
@@ -25248,7 +25248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>101</v>
       </c>
@@ -25282,7 +25282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>101</v>
       </c>
@@ -25316,7 +25316,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>101</v>
       </c>
@@ -25350,7 +25350,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>101</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>0.29134295751159001</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>101</v>
       </c>
@@ -25418,7 +25418,7 @@
         <v>0.27857715035675701</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>101</v>
       </c>
@@ -25452,7 +25452,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>101</v>
       </c>
@@ -25486,7 +25486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>102</v>
       </c>
@@ -25520,7 +25520,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>102</v>
       </c>
@@ -25554,7 +25554,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>102</v>
       </c>
@@ -25588,7 +25588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>102</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>102</v>
       </c>
@@ -25656,7 +25656,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>102</v>
       </c>
@@ -25690,7 +25690,7 @@
         <v>0.261328531272007</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>103</v>
       </c>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>103</v>
       </c>
@@ -25758,7 +25758,7 @@
         <v>0.15076646034923499</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>103</v>
       </c>
@@ -25792,7 +25792,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>103</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>103</v>
       </c>
@@ -25860,7 +25860,7 @@
         <v>0.358636686654213</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>103</v>
       </c>
@@ -25894,7 +25894,7 @@
         <v>0.37039837726687302</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>104</v>
       </c>
@@ -25928,7 +25928,7 @@
         <v>0.16597196429581601</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>104</v>
       </c>
@@ -25962,7 +25962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>104</v>
       </c>
@@ -25996,7 +25996,7 @@
         <v>0.21913063514414499</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>104</v>
       </c>
@@ -26030,7 +26030,7 @@
         <v>0.23456533112809599</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>104</v>
       </c>
@@ -26064,7 +26064,7 @@
         <v>8.1665166022502206E-2</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>104</v>
       </c>
@@ -26098,7 +26098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>104</v>
       </c>
@@ -26132,7 +26132,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>104</v>
       </c>
@@ -26166,7 +26166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>104</v>
       </c>
@@ -26200,7 +26200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>104</v>
       </c>
@@ -26234,7 +26234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>104</v>
       </c>
@@ -26268,7 +26268,7 @@
         <v>0.23164298481940901</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>104</v>
       </c>
@@ -26302,7 +26302,7 @@
         <v>0.25303026237633203</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>104</v>
       </c>
@@ -26336,7 +26336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>104</v>
       </c>
@@ -26370,7 +26370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>104</v>
       </c>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>104</v>
       </c>
@@ -26438,7 +26438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>105</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>0.17696395222217801</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>105</v>
       </c>
@@ -26506,7 +26506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>105</v>
       </c>
@@ -26540,7 +26540,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>105</v>
       </c>
@@ -26574,7 +26574,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>105</v>
       </c>
@@ -26608,7 +26608,7 @@
         <v>0.16597196429581601</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>105</v>
       </c>
@@ -26642,7 +26642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>105</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>105</v>
       </c>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>105</v>
       </c>
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>105</v>
       </c>
@@ -26778,7 +26778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>105</v>
       </c>
@@ -26812,7 +26812,7 @@
         <v>0.122497749033753</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>105</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>105</v>
       </c>
@@ -26880,7 +26880,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>105</v>
       </c>
@@ -26914,7 +26914,7 @@
         <v>0.25104568065794902</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>105</v>
       </c>
@@ -26948,7 +26948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>105</v>
       </c>
@@ -26982,7 +26982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>106</v>
       </c>
@@ -27016,7 +27016,7 @@
         <v>0.15230631996345401</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>106</v>
       </c>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>106</v>
       </c>
@@ -27084,7 +27084,7 @@
         <v>0.197521685259302</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>106</v>
       </c>
@@ -27118,7 +27118,7 @@
         <v>0.16736378710529901</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>106</v>
       </c>
@@ -27152,7 +27152,7 @@
         <v>8.1665166022502206E-2</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>106</v>
       </c>
@@ -27186,7 +27186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>106</v>
       </c>
@@ -27220,7 +27220,7 @@
         <v>0.24499549806750701</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>106</v>
       </c>
